--- a/Mobiact/mobiact_details.xlsx
+++ b/Mobiact/mobiact_details.xlsx
@@ -437,10 +437,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10552,8 +10552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD123"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11051,54 +11051,54 @@
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="4"/>
+      <c r="D91" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3" t="s">
+      <c r="G91" s="4"/>
+      <c r="H91" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3" t="s">
+      <c r="I91" s="4"/>
+      <c r="J91" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3" t="s">
+      <c r="K91" s="4"/>
+      <c r="L91" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3" t="s">
+      <c r="M91" s="4"/>
+      <c r="N91" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="O91" s="3"/>
-      <c r="P91" s="4" t="s">
+      <c r="O91" s="4"/>
+      <c r="P91" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4" t="s">
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="S91" s="4"/>
-      <c r="T91" s="3" t="s">
+      <c r="S91" s="3"/>
+      <c r="T91" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="U91" s="3"/>
-      <c r="V91" s="3" t="s">
+      <c r="U91" s="4"/>
+      <c r="V91" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="W91" s="3"/>
-      <c r="X91" s="4" t="s">
+      <c r="W91" s="4"/>
+      <c r="X91" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Y91" s="4"/>
+      <c r="Y91" s="3"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" t="s">
@@ -13076,6 +13076,7 @@
       <c r="A154">
         <v>62</v>
       </c>
+      <c r="B154" s="1"/>
       <c r="D154" t="s">
         <v>115</v>
       </c>
